--- a/ตรวจงาน/รายการตรวจสอบรายงานการประชุม.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบรายงานการประชุม.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\TEAM 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88222CDA-01FB-4DF7-94E2-F38051F3579D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2F07C7-F3F5-439F-80B1-1F0B1475843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>คำผิด</t>
   </si>
@@ -149,6 +149,12 @@
   <si>
     <t>1.2.3</t>
   </si>
+  <si>
+    <t>รายงานการประชุม ครั้งที่ 4</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
 </sst>
 </file>
 
@@ -238,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,7 +276,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -281,12 +296,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30" customHeight="1"/>
@@ -618,100 +627,100 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="50.4" customHeight="1">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="51.75" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
     </row>
     <row r="4" spans="2:24" ht="30" customHeight="1">
       <c r="B4" s="2" t="s">
@@ -923,7 +932,7 @@
       <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="4">
@@ -959,10 +968,18 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="30" customHeight="1">
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4">
+        <v>23581</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -973,15 +990,21 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
+      <c r="X10" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="2:24" ht="30" customHeight="1">
       <c r="B11" s="6"/>
@@ -4372,6 +4395,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4384,17 +4418,6 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ตรวจงาน/รายการตรวจสอบรายงานการประชุม.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบรายงานการประชุม.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Work_ปี3\งานteam4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2F07C7-F3F5-439F-80B1-1F0B1475843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C11C453-0A0A-4E42-8B95-7BC25BB922C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>คำผิด</t>
   </si>
@@ -155,16 +154,28 @@
   <si>
     <t>1.4.1</t>
   </si>
+  <si>
+    <t>รายงานการประชุม ครั้งที่ 5</t>
+  </si>
+  <si>
+    <t>ปรีชญา</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>รายงานการประชุมทีม ครั้งที่ 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -244,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,13 +290,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -297,9 +305,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -315,7 +329,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -613,116 +627,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="1"/>
-    <col min="2" max="2" width="26.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="1"/>
-    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="26.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="1"/>
+    <col min="4" max="4" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="50.4" customHeight="1">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:24" ht="50.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="51.75" customHeight="1">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-    </row>
-    <row r="4" spans="2:24" ht="30" customHeight="1">
+    <row r="3" spans="2:24" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+    </row>
+    <row r="4" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
@@ -764,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="30" customHeight="1">
+    <row r="5" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
@@ -810,7 +824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="30" customHeight="1">
+    <row r="6" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
@@ -852,7 +866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:24" ht="30" customHeight="1">
+    <row r="7" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
@@ -889,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="30" customHeight="1">
+    <row r="8" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
@@ -897,7 +911,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="4">
-        <v>23568</v>
+        <v>242714</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>33</v>
@@ -928,7 +942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="30" customHeight="1">
+    <row r="9" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
@@ -936,7 +950,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="4">
-        <v>23568</v>
+        <v>242714</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>33</v>
@@ -967,7 +981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="30" customHeight="1">
+    <row r="10" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
@@ -975,7 +989,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="4">
-        <v>23581</v>
+        <v>242727</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>33</v>
@@ -1006,11 +1020,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="30" customHeight="1">
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+    <row r="11" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="4">
+        <v>242734</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1022,20 +1044,32 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="3">
+        <v>4</v>
+      </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="2:24" ht="30" customHeight="1">
-      <c r="B12" s="6"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="X11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4">
+        <v>242734</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1046,7 +1080,9 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -1054,9 +1090,11 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="2:24" ht="30" customHeight="1">
+      <c r="X12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="6"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1081,7 +1119,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="2:24" ht="30" customHeight="1">
+    <row r="14" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1106,7 +1144,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="2:24" ht="30" customHeight="1">
+    <row r="15" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="6"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1131,7 +1169,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="2:24" ht="30" customHeight="1">
+    <row r="16" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1156,7 +1194,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="2:24" ht="30" customHeight="1">
+    <row r="17" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="6"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1181,7 +1219,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="2:24" ht="30" customHeight="1">
+    <row r="18" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="6"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1206,7 +1244,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="2:24" ht="30" customHeight="1">
+    <row r="19" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B19" s="6"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1231,7 +1269,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="2:24" ht="30" customHeight="1">
+    <row r="20" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B20" s="6"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1256,7 +1294,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="2:24" ht="30" customHeight="1">
+    <row r="21" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B21" s="6"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1281,7 +1319,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="2:24" ht="30" customHeight="1">
+    <row r="22" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B22" s="6"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1306,7 +1344,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="2:24" ht="30" customHeight="1">
+    <row r="23" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1331,7 +1369,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="2:24" ht="30" customHeight="1">
+    <row r="24" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B24" s="6"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1356,7 +1394,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="2:24" ht="30" customHeight="1">
+    <row r="25" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B25" s="6"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1381,7 +1419,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="2:24" ht="30" customHeight="1">
+    <row r="26" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B26" s="6"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1406,7 +1444,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="2:24" ht="30" customHeight="1">
+    <row r="27" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B27" s="6"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1431,7 +1469,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="2:24" ht="30" customHeight="1">
+    <row r="28" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B28" s="6"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1456,7 +1494,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="2:24" ht="30" customHeight="1">
+    <row r="29" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B29" s="6"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1481,7 +1519,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="2:24" ht="30" customHeight="1">
+    <row r="30" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B30" s="6"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1506,7 +1544,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="2:24" ht="30" customHeight="1">
+    <row r="31" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B31" s="6"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1531,7 +1569,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="2:24" ht="30" customHeight="1">
+    <row r="32" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B32" s="6"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1556,7 +1594,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="2:24" ht="30" customHeight="1">
+    <row r="33" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B33" s="6"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1581,7 +1619,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="2:24" ht="30" customHeight="1">
+    <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B34" s="6"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1606,7 +1644,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35" spans="2:24" ht="30" customHeight="1">
+    <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B35" s="6"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1631,7 +1669,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" spans="2:24" ht="30" customHeight="1">
+    <row r="36" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B36" s="6"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1656,7 +1694,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" spans="2:24" ht="30" customHeight="1">
+    <row r="37" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B37" s="6"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1681,7 +1719,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="2:24" ht="30" customHeight="1">
+    <row r="38" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B38" s="6"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1706,7 +1744,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="2:24" ht="30" customHeight="1">
+    <row r="39" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B39" s="6"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1731,7 +1769,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="2:24" ht="30" customHeight="1">
+    <row r="40" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B40" s="6"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1756,7 +1794,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" spans="2:24" ht="30" customHeight="1">
+    <row r="41" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B41" s="6"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1781,7 +1819,7 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="2:24" ht="30" customHeight="1">
+    <row r="42" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B42" s="6"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1806,7 +1844,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="2:24" ht="30" customHeight="1">
+    <row r="43" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B43" s="6"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1831,7 +1869,7 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" spans="2:24" ht="30" customHeight="1">
+    <row r="44" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1856,7 +1894,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45" spans="2:24" ht="30" customHeight="1">
+    <row r="45" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B45" s="6"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1881,7 +1919,7 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="2:24" ht="30" customHeight="1">
+    <row r="46" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B46" s="6"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1906,7 +1944,7 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="2:24" ht="30" customHeight="1">
+    <row r="47" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B47" s="6"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1931,7 +1969,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="2:24" ht="30" customHeight="1">
+    <row r="48" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B48" s="6"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1956,7 +1994,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" spans="2:24" ht="30" customHeight="1">
+    <row r="49" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B49" s="6"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1981,7 +2019,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="2:24" ht="30" customHeight="1">
+    <row r="50" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B50" s="6"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2006,7 +2044,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="2:24" ht="30" customHeight="1">
+    <row r="51" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B51" s="6"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2031,7 +2069,7 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="2:24" ht="30" customHeight="1">
+    <row r="52" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B52" s="6"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2056,7 +2094,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" spans="2:24" ht="30" customHeight="1">
+    <row r="53" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B53" s="6"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2081,7 +2119,7 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" spans="2:24" ht="30" customHeight="1">
+    <row r="54" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B54" s="6"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2106,7 +2144,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" spans="2:24" ht="30" customHeight="1">
+    <row r="55" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B55" s="6"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2131,7 +2169,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56" spans="2:24" ht="30" customHeight="1">
+    <row r="56" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B56" s="6"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2156,7 +2194,7 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57" spans="2:24" ht="30" customHeight="1">
+    <row r="57" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B57" s="6"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2181,7 +2219,7 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="2:24" ht="30" customHeight="1">
+    <row r="58" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B58" s="6"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2206,7 +2244,7 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59" spans="2:24" ht="30" customHeight="1">
+    <row r="59" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B59" s="6"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2231,7 +2269,7 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60" spans="2:24" ht="30" customHeight="1">
+    <row r="60" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B60" s="6"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2256,7 +2294,7 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61" spans="2:24" ht="30" customHeight="1">
+    <row r="61" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B61" s="6"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2281,7 +2319,7 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
     </row>
-    <row r="62" spans="2:24" ht="30" customHeight="1">
+    <row r="62" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B62" s="6"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2306,7 +2344,7 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63" spans="2:24" ht="30" customHeight="1">
+    <row r="63" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B63" s="6"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2331,7 +2369,7 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="2:24" ht="30" customHeight="1">
+    <row r="64" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B64" s="6"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2356,7 +2394,7 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65" spans="2:24" ht="30" customHeight="1">
+    <row r="65" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2381,7 +2419,7 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66" spans="2:24" ht="30" customHeight="1">
+    <row r="66" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B66" s="6"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2406,7 +2444,7 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67" spans="2:24" ht="30" customHeight="1">
+    <row r="67" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B67" s="6"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2431,7 +2469,7 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68" spans="2:24" ht="30" customHeight="1">
+    <row r="68" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B68" s="6"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2456,7 +2494,7 @@
       <c r="W68" s="7"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69" spans="2:24" ht="30" customHeight="1">
+    <row r="69" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2481,7 +2519,7 @@
       <c r="W69" s="7"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="2:24" ht="30" customHeight="1">
+    <row r="70" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2506,7 +2544,7 @@
       <c r="W70" s="7"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71" spans="2:24" ht="30" customHeight="1">
+    <row r="71" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2531,7 +2569,7 @@
       <c r="W71" s="7"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72" spans="2:24" ht="30" customHeight="1">
+    <row r="72" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2556,7 +2594,7 @@
       <c r="W72" s="7"/>
       <c r="X72" s="3"/>
     </row>
-    <row r="73" spans="2:24" ht="30" customHeight="1">
+    <row r="73" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2581,7 +2619,7 @@
       <c r="W73" s="7"/>
       <c r="X73" s="3"/>
     </row>
-    <row r="74" spans="2:24" ht="30" customHeight="1">
+    <row r="74" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2606,7 +2644,7 @@
       <c r="W74" s="7"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75" spans="2:24" ht="30" customHeight="1">
+    <row r="75" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2631,7 +2669,7 @@
       <c r="W75" s="7"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76" spans="2:24" ht="30" customHeight="1">
+    <row r="76" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2656,7 +2694,7 @@
       <c r="W76" s="7"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77" spans="2:24" ht="30" customHeight="1">
+    <row r="77" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2681,7 +2719,7 @@
       <c r="W77" s="7"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78" spans="2:24" ht="30" customHeight="1">
+    <row r="78" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2706,7 +2744,7 @@
       <c r="W78" s="7"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79" spans="2:24" ht="30" customHeight="1">
+    <row r="79" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2731,7 +2769,7 @@
       <c r="W79" s="7"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80" spans="2:24" ht="30" customHeight="1">
+    <row r="80" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2756,7 +2794,7 @@
       <c r="W80" s="7"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81" spans="2:24" ht="30" customHeight="1">
+    <row r="81" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2781,7 +2819,7 @@
       <c r="W81" s="7"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82" spans="2:24" ht="30" customHeight="1">
+    <row r="82" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2806,7 +2844,7 @@
       <c r="W82" s="7"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83" spans="2:24" ht="30" customHeight="1">
+    <row r="83" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -2831,7 +2869,7 @@
       <c r="W83" s="7"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84" spans="2:24" ht="30" customHeight="1">
+    <row r="84" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -2856,7 +2894,7 @@
       <c r="W84" s="7"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85" spans="2:24" ht="30" customHeight="1">
+    <row r="85" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -2881,7 +2919,7 @@
       <c r="W85" s="7"/>
       <c r="X85" s="3"/>
     </row>
-    <row r="86" spans="2:24" ht="30" customHeight="1">
+    <row r="86" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -2906,7 +2944,7 @@
       <c r="W86" s="7"/>
       <c r="X86" s="3"/>
     </row>
-    <row r="87" spans="2:24" ht="30" customHeight="1">
+    <row r="87" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -2931,7 +2969,7 @@
       <c r="W87" s="7"/>
       <c r="X87" s="3"/>
     </row>
-    <row r="88" spans="2:24" ht="30" customHeight="1">
+    <row r="88" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -2956,7 +2994,7 @@
       <c r="W88" s="7"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89" spans="2:24" ht="30" customHeight="1">
+    <row r="89" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -2981,7 +3019,7 @@
       <c r="W89" s="7"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" spans="2:24" ht="30" customHeight="1">
+    <row r="90" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3006,7 +3044,7 @@
       <c r="W90" s="7"/>
       <c r="X90" s="3"/>
     </row>
-    <row r="91" spans="2:24" ht="30" customHeight="1">
+    <row r="91" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3031,7 +3069,7 @@
       <c r="W91" s="7"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" spans="2:24" ht="30" customHeight="1">
+    <row r="92" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3056,7 +3094,7 @@
       <c r="W92" s="7"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" spans="2:24" ht="30" customHeight="1">
+    <row r="93" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3081,7 +3119,7 @@
       <c r="W93" s="7"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" spans="2:24" ht="30" customHeight="1">
+    <row r="94" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3106,7 +3144,7 @@
       <c r="W94" s="7"/>
       <c r="X94" s="3"/>
     </row>
-    <row r="95" spans="2:24" ht="30" customHeight="1">
+    <row r="95" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3131,7 +3169,7 @@
       <c r="W95" s="7"/>
       <c r="X95" s="3"/>
     </row>
-    <row r="96" spans="2:24" ht="30" customHeight="1">
+    <row r="96" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3156,7 +3194,7 @@
       <c r="W96" s="7"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" spans="2:24" ht="30" customHeight="1">
+    <row r="97" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3181,7 +3219,7 @@
       <c r="W97" s="7"/>
       <c r="X97" s="3"/>
     </row>
-    <row r="98" spans="2:24" ht="30" customHeight="1">
+    <row r="98" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3206,7 +3244,7 @@
       <c r="W98" s="7"/>
       <c r="X98" s="3"/>
     </row>
-    <row r="99" spans="2:24" ht="30" customHeight="1">
+    <row r="99" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3231,7 +3269,7 @@
       <c r="W99" s="7"/>
       <c r="X99" s="3"/>
     </row>
-    <row r="100" spans="2:24" ht="30" customHeight="1">
+    <row r="100" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3256,7 +3294,7 @@
       <c r="W100" s="7"/>
       <c r="X100" s="3"/>
     </row>
-    <row r="101" spans="2:24" ht="30" customHeight="1">
+    <row r="101" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3281,7 +3319,7 @@
       <c r="W101" s="7"/>
       <c r="X101" s="3"/>
     </row>
-    <row r="102" spans="2:24" ht="30" customHeight="1">
+    <row r="102" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3306,7 +3344,7 @@
       <c r="W102" s="7"/>
       <c r="X102" s="3"/>
     </row>
-    <row r="103" spans="2:24" ht="30" customHeight="1">
+    <row r="103" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3331,7 +3369,7 @@
       <c r="W103" s="7"/>
       <c r="X103" s="3"/>
     </row>
-    <row r="104" spans="2:24" ht="30" customHeight="1">
+    <row r="104" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3356,7 +3394,7 @@
       <c r="W104" s="7"/>
       <c r="X104" s="3"/>
     </row>
-    <row r="105" spans="2:24" ht="30" customHeight="1">
+    <row r="105" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3381,7 +3419,7 @@
       <c r="W105" s="7"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106" spans="2:24" ht="30" customHeight="1">
+    <row r="106" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3406,7 +3444,7 @@
       <c r="W106" s="7"/>
       <c r="X106" s="3"/>
     </row>
-    <row r="107" spans="2:24" ht="30" customHeight="1">
+    <row r="107" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3431,7 +3469,7 @@
       <c r="W107" s="7"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108" spans="2:24" ht="30" customHeight="1">
+    <row r="108" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3456,7 +3494,7 @@
       <c r="W108" s="7"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109" spans="2:24" ht="30" customHeight="1">
+    <row r="109" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3481,7 +3519,7 @@
       <c r="W109" s="7"/>
       <c r="X109" s="3"/>
     </row>
-    <row r="110" spans="2:24" ht="30" customHeight="1">
+    <row r="110" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3506,7 +3544,7 @@
       <c r="W110" s="7"/>
       <c r="X110" s="3"/>
     </row>
-    <row r="111" spans="2:24" ht="30" customHeight="1">
+    <row r="111" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3531,7 +3569,7 @@
       <c r="W111" s="7"/>
       <c r="X111" s="3"/>
     </row>
-    <row r="112" spans="2:24" ht="30" customHeight="1">
+    <row r="112" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3556,7 +3594,7 @@
       <c r="W112" s="7"/>
       <c r="X112" s="3"/>
     </row>
-    <row r="113" spans="2:24" ht="30" customHeight="1">
+    <row r="113" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3581,7 +3619,7 @@
       <c r="W113" s="7"/>
       <c r="X113" s="3"/>
     </row>
-    <row r="114" spans="2:24" ht="30" customHeight="1">
+    <row r="114" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3606,7 +3644,7 @@
       <c r="W114" s="7"/>
       <c r="X114" s="3"/>
     </row>
-    <row r="115" spans="2:24" ht="30" customHeight="1">
+    <row r="115" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3631,7 +3669,7 @@
       <c r="W115" s="7"/>
       <c r="X115" s="3"/>
     </row>
-    <row r="116" spans="2:24" ht="30" customHeight="1">
+    <row r="116" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3656,7 +3694,7 @@
       <c r="W116" s="7"/>
       <c r="X116" s="3"/>
     </row>
-    <row r="117" spans="2:24" ht="30" customHeight="1">
+    <row r="117" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -3681,7 +3719,7 @@
       <c r="W117" s="7"/>
       <c r="X117" s="3"/>
     </row>
-    <row r="118" spans="2:24" ht="30" customHeight="1">
+    <row r="118" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -3706,7 +3744,7 @@
       <c r="W118" s="7"/>
       <c r="X118" s="3"/>
     </row>
-    <row r="119" spans="2:24" ht="30" customHeight="1">
+    <row r="119" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -3731,7 +3769,7 @@
       <c r="W119" s="7"/>
       <c r="X119" s="3"/>
     </row>
-    <row r="120" spans="2:24" ht="30" customHeight="1">
+    <row r="120" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -3756,7 +3794,7 @@
       <c r="W120" s="7"/>
       <c r="X120" s="3"/>
     </row>
-    <row r="121" spans="2:24" ht="30" customHeight="1">
+    <row r="121" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -3781,7 +3819,7 @@
       <c r="W121" s="7"/>
       <c r="X121" s="3"/>
     </row>
-    <row r="122" spans="2:24" ht="30" customHeight="1">
+    <row r="122" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -3806,7 +3844,7 @@
       <c r="W122" s="7"/>
       <c r="X122" s="3"/>
     </row>
-    <row r="123" spans="2:24" ht="30" customHeight="1">
+    <row r="123" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -3831,7 +3869,7 @@
       <c r="W123" s="7"/>
       <c r="X123" s="3"/>
     </row>
-    <row r="124" spans="2:24" ht="30" customHeight="1">
+    <row r="124" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -3856,7 +3894,7 @@
       <c r="W124" s="7"/>
       <c r="X124" s="3"/>
     </row>
-    <row r="125" spans="2:24" ht="30" customHeight="1">
+    <row r="125" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -3881,7 +3919,7 @@
       <c r="W125" s="7"/>
       <c r="X125" s="3"/>
     </row>
-    <row r="126" spans="2:24" ht="30" customHeight="1">
+    <row r="126" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -3906,7 +3944,7 @@
       <c r="W126" s="7"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127" spans="2:24" ht="30" customHeight="1">
+    <row r="127" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -3931,7 +3969,7 @@
       <c r="W127" s="7"/>
       <c r="X127" s="3"/>
     </row>
-    <row r="128" spans="2:24" ht="30" customHeight="1">
+    <row r="128" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -3956,7 +3994,7 @@
       <c r="W128" s="7"/>
       <c r="X128" s="3"/>
     </row>
-    <row r="129" spans="2:24" ht="30" customHeight="1">
+    <row r="129" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -3981,7 +4019,7 @@
       <c r="W129" s="7"/>
       <c r="X129" s="3"/>
     </row>
-    <row r="130" spans="2:24" ht="30" customHeight="1">
+    <row r="130" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4006,7 +4044,7 @@
       <c r="W130" s="7"/>
       <c r="X130" s="3"/>
     </row>
-    <row r="131" spans="2:24" ht="30" customHeight="1">
+    <row r="131" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4031,7 +4069,7 @@
       <c r="W131" s="7"/>
       <c r="X131" s="3"/>
     </row>
-    <row r="132" spans="2:24" ht="30" customHeight="1">
+    <row r="132" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4056,7 +4094,7 @@
       <c r="W132" s="7"/>
       <c r="X132" s="3"/>
     </row>
-    <row r="133" spans="2:24" ht="30" customHeight="1">
+    <row r="133" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4081,7 +4119,7 @@
       <c r="W133" s="7"/>
       <c r="X133" s="3"/>
     </row>
-    <row r="134" spans="2:24" ht="30" customHeight="1">
+    <row r="134" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4106,7 +4144,7 @@
       <c r="W134" s="7"/>
       <c r="X134" s="3"/>
     </row>
-    <row r="135" spans="2:24" ht="30" customHeight="1">
+    <row r="135" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4131,7 +4169,7 @@
       <c r="W135" s="7"/>
       <c r="X135" s="3"/>
     </row>
-    <row r="136" spans="2:24" ht="30" customHeight="1">
+    <row r="136" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -4156,7 +4194,7 @@
       <c r="W136" s="7"/>
       <c r="X136" s="3"/>
     </row>
-    <row r="137" spans="2:24" ht="30" customHeight="1">
+    <row r="137" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4181,7 +4219,7 @@
       <c r="W137" s="7"/>
       <c r="X137" s="3"/>
     </row>
-    <row r="138" spans="2:24" ht="30" customHeight="1">
+    <row r="138" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -4206,7 +4244,7 @@
       <c r="W138" s="7"/>
       <c r="X138" s="3"/>
     </row>
-    <row r="139" spans="2:24" ht="30" customHeight="1">
+    <row r="139" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -4231,7 +4269,7 @@
       <c r="W139" s="7"/>
       <c r="X139" s="3"/>
     </row>
-    <row r="140" spans="2:24" ht="30" customHeight="1">
+    <row r="140" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -4256,7 +4294,7 @@
       <c r="W140" s="7"/>
       <c r="X140" s="3"/>
     </row>
-    <row r="141" spans="2:24" ht="30" customHeight="1">
+    <row r="141" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -4281,7 +4319,7 @@
       <c r="W141" s="7"/>
       <c r="X141" s="3"/>
     </row>
-    <row r="142" spans="2:24" ht="30" customHeight="1">
+    <row r="142" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -4306,106 +4344,95 @@
       <c r="W142" s="7"/>
       <c r="X142" s="3"/>
     </row>
-    <row r="143" spans="2:24" ht="30" customHeight="1">
+    <row r="143" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B143" s="8"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="2:24" ht="30" customHeight="1">
+    <row r="144" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B144" s="8"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="2:24" ht="30" customHeight="1">
+    <row r="145" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B145" s="8"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="2:24" ht="30" customHeight="1">
+    <row r="146" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B146" s="8"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="2:24" ht="30" customHeight="1">
+    <row r="147" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B147" s="8"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="2:24" ht="30" customHeight="1">
+    <row r="148" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B148" s="8"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="2:24" ht="30" customHeight="1">
+    <row r="149" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B149" s="8"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="2:24" ht="30" customHeight="1">
+    <row r="150" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B150" s="8"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="2:24" ht="30" customHeight="1">
+    <row r="151" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B151" s="8"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="2:24" ht="30" customHeight="1">
+    <row r="152" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B152" s="8"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="2:24" ht="30" customHeight="1">
+    <row r="153" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B153" s="8"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="2:24" ht="30" customHeight="1">
+    <row r="154" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B154" s="8"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="2:24" ht="30" customHeight="1">
+    <row r="155" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B155" s="8"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="2:24" ht="30" customHeight="1">
+    <row r="156" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B156" s="8"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="2:24" ht="30" customHeight="1">
+    <row r="157" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B157" s="8"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="2:24" ht="30" customHeight="1">
+    <row r="158" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B158" s="8"/>
     </row>
-    <row r="159" spans="2:24" ht="30" customHeight="1">
+    <row r="159" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B159" s="8"/>
     </row>
-    <row r="160" spans="2:24" ht="30" customHeight="1">
+    <row r="160" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B160" s="8"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1">
+    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B161" s="8"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1">
+    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B162" s="8"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1">
+    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B163" s="8"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1">
+    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B164" s="8"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1">
+    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B165" s="8"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1">
+    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B166" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4418,6 +4445,17 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ตรวจงาน/รายการตรวจสอบรายงานการประชุม.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบรายงานการประชุม.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Work_ปี3\งานteam4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C11C453-0A0A-4E42-8B95-7BC25BB922C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6FFF4B-05BE-4762-B123-25EFEF936FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>คำผิด</t>
   </si>
@@ -165,17 +165,23 @@
   </si>
   <si>
     <t>รายงานการประชุมทีม ครั้งที่ 5</t>
+  </si>
+  <si>
+    <t>รายงานการประชุมทีม ครั้งที่ 6</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -255,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,7 +299,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -305,15 +320,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -329,7 +338,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -627,116 +636,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="26.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="1"/>
-    <col min="4" max="4" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="26.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="50.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:24" ht="50.4" customHeight="1">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-    </row>
-    <row r="4" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:24" ht="51.75" customHeight="1">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+    </row>
+    <row r="4" spans="2:24" ht="30" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
@@ -778,7 +787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:24" ht="30" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
@@ -824,7 +833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:24" ht="30" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
@@ -866,7 +875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:24" ht="30" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
@@ -903,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:24" ht="30" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
@@ -942,7 +951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:24" ht="30" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
@@ -981,7 +990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:24" ht="30" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
@@ -1020,7 +1029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:24" ht="30" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
@@ -1057,7 +1066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:24" ht="30" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>43</v>
       </c>
@@ -1094,11 +1103,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+    <row r="13" spans="2:24" ht="30" customHeight="1">
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4">
+        <v>23599</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1109,7 +1126,9 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="P13" s="3">
+        <v>5</v>
+      </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -1117,9 +1136,11 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="X13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="30" customHeight="1">
       <c r="B14" s="6"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1144,7 +1165,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="2:24" ht="30" customHeight="1">
       <c r="B15" s="6"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1169,7 +1190,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="2:24" ht="30" customHeight="1">
       <c r="B16" s="6"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1194,7 +1215,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:24" ht="30" customHeight="1">
       <c r="B17" s="6"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1219,7 +1240,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:24" ht="30" customHeight="1">
       <c r="B18" s="6"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1244,7 +1265,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:24" ht="30" customHeight="1">
       <c r="B19" s="6"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1269,7 +1290,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:24" ht="30" customHeight="1">
       <c r="B20" s="6"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1294,7 +1315,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:24" ht="30" customHeight="1">
       <c r="B21" s="6"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1319,7 +1340,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:24" ht="30" customHeight="1">
       <c r="B22" s="6"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1344,7 +1365,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:24" ht="30" customHeight="1">
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1369,7 +1390,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:24" ht="30" customHeight="1">
       <c r="B24" s="6"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1394,7 +1415,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:24" ht="30" customHeight="1">
       <c r="B25" s="6"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1419,7 +1440,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:24" ht="30" customHeight="1">
       <c r="B26" s="6"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1444,7 +1465,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:24" ht="30" customHeight="1">
       <c r="B27" s="6"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1469,7 +1490,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:24" ht="30" customHeight="1">
       <c r="B28" s="6"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1494,7 +1515,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:24" ht="30" customHeight="1">
       <c r="B29" s="6"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1519,7 +1540,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:24" ht="30" customHeight="1">
       <c r="B30" s="6"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1544,7 +1565,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:24" ht="30" customHeight="1">
       <c r="B31" s="6"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1569,7 +1590,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:24" ht="30" customHeight="1">
       <c r="B32" s="6"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1594,7 +1615,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:24" ht="30" customHeight="1">
       <c r="B33" s="6"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1619,7 +1640,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:24" ht="30" customHeight="1">
       <c r="B34" s="6"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1644,7 +1665,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:24" ht="30" customHeight="1">
       <c r="B35" s="6"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1669,7 +1690,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:24" ht="30" customHeight="1">
       <c r="B36" s="6"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1694,7 +1715,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="2:24" ht="30" customHeight="1">
       <c r="B37" s="6"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1719,7 +1740,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:24" ht="30" customHeight="1">
       <c r="B38" s="6"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1744,7 +1765,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="2:24" ht="30" customHeight="1">
       <c r="B39" s="6"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1769,7 +1790,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="2:24" ht="30" customHeight="1">
       <c r="B40" s="6"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1794,7 +1815,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="2:24" ht="30" customHeight="1">
       <c r="B41" s="6"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1819,7 +1840,7 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="2:24" ht="30" customHeight="1">
       <c r="B42" s="6"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1844,7 +1865,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="2:24" ht="30" customHeight="1">
       <c r="B43" s="6"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1869,7 +1890,7 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="2:24" ht="30" customHeight="1">
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1894,7 +1915,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="2:24" ht="30" customHeight="1">
       <c r="B45" s="6"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1919,7 +1940,7 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="2:24" ht="30" customHeight="1">
       <c r="B46" s="6"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1944,7 +1965,7 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:24" ht="30" customHeight="1">
       <c r="B47" s="6"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1969,7 +1990,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="2:24" ht="30" customHeight="1">
       <c r="B48" s="6"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1994,7 +2015,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="2:24" ht="30" customHeight="1">
       <c r="B49" s="6"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2019,7 +2040,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="2:24" ht="30" customHeight="1">
       <c r="B50" s="6"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2044,7 +2065,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="2:24" ht="30" customHeight="1">
       <c r="B51" s="6"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2069,7 +2090,7 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="2:24" ht="30" customHeight="1">
       <c r="B52" s="6"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2094,7 +2115,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="2:24" ht="30" customHeight="1">
       <c r="B53" s="6"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2119,7 +2140,7 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="2:24" ht="30" customHeight="1">
       <c r="B54" s="6"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2144,7 +2165,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="2:24" ht="30" customHeight="1">
       <c r="B55" s="6"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2169,7 +2190,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="2:24" ht="30" customHeight="1">
       <c r="B56" s="6"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2194,7 +2215,7 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="2:24" ht="30" customHeight="1">
       <c r="B57" s="6"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2219,7 +2240,7 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="2:24" ht="30" customHeight="1">
       <c r="B58" s="6"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2244,7 +2265,7 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="2:24" ht="30" customHeight="1">
       <c r="B59" s="6"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2269,7 +2290,7 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="2:24" ht="30" customHeight="1">
       <c r="B60" s="6"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2294,7 +2315,7 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="2:24" ht="30" customHeight="1">
       <c r="B61" s="6"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2319,7 +2340,7 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
     </row>
-    <row r="62" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="2:24" ht="30" customHeight="1">
       <c r="B62" s="6"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2344,7 +2365,7 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="2:24" ht="30" customHeight="1">
       <c r="B63" s="6"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2369,7 +2390,7 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="2:24" ht="30" customHeight="1">
       <c r="B64" s="6"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2394,7 +2415,7 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="2:24" ht="30" customHeight="1">
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2419,7 +2440,7 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="2:24" ht="30" customHeight="1">
       <c r="B66" s="6"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2444,7 +2465,7 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="2:24" ht="30" customHeight="1">
       <c r="B67" s="6"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2469,7 +2490,7 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="2:24" ht="30" customHeight="1">
       <c r="B68" s="6"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2494,7 +2515,7 @@
       <c r="W68" s="7"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="2:24" ht="30" customHeight="1">
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2519,7 +2540,7 @@
       <c r="W69" s="7"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="2:24" ht="30" customHeight="1">
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2544,7 +2565,7 @@
       <c r="W70" s="7"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="2:24" ht="30" customHeight="1">
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2569,7 +2590,7 @@
       <c r="W71" s="7"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="2:24" ht="30" customHeight="1">
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2594,7 +2615,7 @@
       <c r="W72" s="7"/>
       <c r="X72" s="3"/>
     </row>
-    <row r="73" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="2:24" ht="30" customHeight="1">
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2619,7 +2640,7 @@
       <c r="W73" s="7"/>
       <c r="X73" s="3"/>
     </row>
-    <row r="74" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="2:24" ht="30" customHeight="1">
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2644,7 +2665,7 @@
       <c r="W74" s="7"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="2:24" ht="30" customHeight="1">
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2669,7 +2690,7 @@
       <c r="W75" s="7"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="2:24" ht="30" customHeight="1">
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2694,7 +2715,7 @@
       <c r="W76" s="7"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="2:24" ht="30" customHeight="1">
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2719,7 +2740,7 @@
       <c r="W77" s="7"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="2:24" ht="30" customHeight="1">
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2744,7 +2765,7 @@
       <c r="W78" s="7"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="2:24" ht="30" customHeight="1">
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2769,7 +2790,7 @@
       <c r="W79" s="7"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="2:24" ht="30" customHeight="1">
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2794,7 +2815,7 @@
       <c r="W80" s="7"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="2:24" ht="30" customHeight="1">
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2819,7 +2840,7 @@
       <c r="W81" s="7"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="2:24" ht="30" customHeight="1">
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2844,7 +2865,7 @@
       <c r="W82" s="7"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="2:24" ht="30" customHeight="1">
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -2869,7 +2890,7 @@
       <c r="W83" s="7"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="2:24" ht="30" customHeight="1">
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -2894,7 +2915,7 @@
       <c r="W84" s="7"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="2:24" ht="30" customHeight="1">
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -2919,7 +2940,7 @@
       <c r="W85" s="7"/>
       <c r="X85" s="3"/>
     </row>
-    <row r="86" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="2:24" ht="30" customHeight="1">
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -2944,7 +2965,7 @@
       <c r="W86" s="7"/>
       <c r="X86" s="3"/>
     </row>
-    <row r="87" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="2:24" ht="30" customHeight="1">
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -2969,7 +2990,7 @@
       <c r="W87" s="7"/>
       <c r="X87" s="3"/>
     </row>
-    <row r="88" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="2:24" ht="30" customHeight="1">
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -2994,7 +3015,7 @@
       <c r="W88" s="7"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="2:24" ht="30" customHeight="1">
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3019,7 +3040,7 @@
       <c r="W89" s="7"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="2:24" ht="30" customHeight="1">
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3044,7 +3065,7 @@
       <c r="W90" s="7"/>
       <c r="X90" s="3"/>
     </row>
-    <row r="91" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="2:24" ht="30" customHeight="1">
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3069,7 +3090,7 @@
       <c r="W91" s="7"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="2:24" ht="30" customHeight="1">
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3094,7 +3115,7 @@
       <c r="W92" s="7"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="2:24" ht="30" customHeight="1">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3119,7 +3140,7 @@
       <c r="W93" s="7"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="2:24" ht="30" customHeight="1">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3144,7 +3165,7 @@
       <c r="W94" s="7"/>
       <c r="X94" s="3"/>
     </row>
-    <row r="95" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="2:24" ht="30" customHeight="1">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3169,7 +3190,7 @@
       <c r="W95" s="7"/>
       <c r="X95" s="3"/>
     </row>
-    <row r="96" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="2:24" ht="30" customHeight="1">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3194,7 +3215,7 @@
       <c r="W96" s="7"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="2:24" ht="30" customHeight="1">
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3219,7 +3240,7 @@
       <c r="W97" s="7"/>
       <c r="X97" s="3"/>
     </row>
-    <row r="98" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="98" spans="2:24" ht="30" customHeight="1">
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3244,7 +3265,7 @@
       <c r="W98" s="7"/>
       <c r="X98" s="3"/>
     </row>
-    <row r="99" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="2:24" ht="30" customHeight="1">
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3269,7 +3290,7 @@
       <c r="W99" s="7"/>
       <c r="X99" s="3"/>
     </row>
-    <row r="100" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="100" spans="2:24" ht="30" customHeight="1">
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3294,7 +3315,7 @@
       <c r="W100" s="7"/>
       <c r="X100" s="3"/>
     </row>
-    <row r="101" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="2:24" ht="30" customHeight="1">
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3319,7 +3340,7 @@
       <c r="W101" s="7"/>
       <c r="X101" s="3"/>
     </row>
-    <row r="102" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="2:24" ht="30" customHeight="1">
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3344,7 +3365,7 @@
       <c r="W102" s="7"/>
       <c r="X102" s="3"/>
     </row>
-    <row r="103" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="2:24" ht="30" customHeight="1">
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3369,7 +3390,7 @@
       <c r="W103" s="7"/>
       <c r="X103" s="3"/>
     </row>
-    <row r="104" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="104" spans="2:24" ht="30" customHeight="1">
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3394,7 +3415,7 @@
       <c r="W104" s="7"/>
       <c r="X104" s="3"/>
     </row>
-    <row r="105" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="2:24" ht="30" customHeight="1">
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3419,7 +3440,7 @@
       <c r="W105" s="7"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="2:24" ht="30" customHeight="1">
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3444,7 +3465,7 @@
       <c r="W106" s="7"/>
       <c r="X106" s="3"/>
     </row>
-    <row r="107" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="2:24" ht="30" customHeight="1">
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3469,7 +3490,7 @@
       <c r="W107" s="7"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="2:24" ht="30" customHeight="1">
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3494,7 +3515,7 @@
       <c r="W108" s="7"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="2:24" ht="30" customHeight="1">
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3519,7 +3540,7 @@
       <c r="W109" s="7"/>
       <c r="X109" s="3"/>
     </row>
-    <row r="110" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="2:24" ht="30" customHeight="1">
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3544,7 +3565,7 @@
       <c r="W110" s="7"/>
       <c r="X110" s="3"/>
     </row>
-    <row r="111" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="2:24" ht="30" customHeight="1">
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3569,7 +3590,7 @@
       <c r="W111" s="7"/>
       <c r="X111" s="3"/>
     </row>
-    <row r="112" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="2:24" ht="30" customHeight="1">
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3594,7 +3615,7 @@
       <c r="W112" s="7"/>
       <c r="X112" s="3"/>
     </row>
-    <row r="113" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="2:24" ht="30" customHeight="1">
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3619,7 +3640,7 @@
       <c r="W113" s="7"/>
       <c r="X113" s="3"/>
     </row>
-    <row r="114" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="2:24" ht="30" customHeight="1">
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3644,7 +3665,7 @@
       <c r="W114" s="7"/>
       <c r="X114" s="3"/>
     </row>
-    <row r="115" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="115" spans="2:24" ht="30" customHeight="1">
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3669,7 +3690,7 @@
       <c r="W115" s="7"/>
       <c r="X115" s="3"/>
     </row>
-    <row r="116" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="2:24" ht="30" customHeight="1">
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3694,7 +3715,7 @@
       <c r="W116" s="7"/>
       <c r="X116" s="3"/>
     </row>
-    <row r="117" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="2:24" ht="30" customHeight="1">
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -3719,7 +3740,7 @@
       <c r="W117" s="7"/>
       <c r="X117" s="3"/>
     </row>
-    <row r="118" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="2:24" ht="30" customHeight="1">
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -3744,7 +3765,7 @@
       <c r="W118" s="7"/>
       <c r="X118" s="3"/>
     </row>
-    <row r="119" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="2:24" ht="30" customHeight="1">
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -3769,7 +3790,7 @@
       <c r="W119" s="7"/>
       <c r="X119" s="3"/>
     </row>
-    <row r="120" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="2:24" ht="30" customHeight="1">
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -3794,7 +3815,7 @@
       <c r="W120" s="7"/>
       <c r="X120" s="3"/>
     </row>
-    <row r="121" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="2:24" ht="30" customHeight="1">
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -3819,7 +3840,7 @@
       <c r="W121" s="7"/>
       <c r="X121" s="3"/>
     </row>
-    <row r="122" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="2:24" ht="30" customHeight="1">
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -3844,7 +3865,7 @@
       <c r="W122" s="7"/>
       <c r="X122" s="3"/>
     </row>
-    <row r="123" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="2:24" ht="30" customHeight="1">
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -3869,7 +3890,7 @@
       <c r="W123" s="7"/>
       <c r="X123" s="3"/>
     </row>
-    <row r="124" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="2:24" ht="30" customHeight="1">
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -3894,7 +3915,7 @@
       <c r="W124" s="7"/>
       <c r="X124" s="3"/>
     </row>
-    <row r="125" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="2:24" ht="30" customHeight="1">
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -3919,7 +3940,7 @@
       <c r="W125" s="7"/>
       <c r="X125" s="3"/>
     </row>
-    <row r="126" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="2:24" ht="30" customHeight="1">
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -3944,7 +3965,7 @@
       <c r="W126" s="7"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="2:24" ht="30" customHeight="1">
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -3969,7 +3990,7 @@
       <c r="W127" s="7"/>
       <c r="X127" s="3"/>
     </row>
-    <row r="128" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="2:24" ht="30" customHeight="1">
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -3994,7 +4015,7 @@
       <c r="W128" s="7"/>
       <c r="X128" s="3"/>
     </row>
-    <row r="129" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="2:24" ht="30" customHeight="1">
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4019,7 +4040,7 @@
       <c r="W129" s="7"/>
       <c r="X129" s="3"/>
     </row>
-    <row r="130" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="2:24" ht="30" customHeight="1">
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4044,7 +4065,7 @@
       <c r="W130" s="7"/>
       <c r="X130" s="3"/>
     </row>
-    <row r="131" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="2:24" ht="30" customHeight="1">
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4069,7 +4090,7 @@
       <c r="W131" s="7"/>
       <c r="X131" s="3"/>
     </row>
-    <row r="132" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="2:24" ht="30" customHeight="1">
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4094,7 +4115,7 @@
       <c r="W132" s="7"/>
       <c r="X132" s="3"/>
     </row>
-    <row r="133" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="2:24" ht="30" customHeight="1">
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4119,7 +4140,7 @@
       <c r="W133" s="7"/>
       <c r="X133" s="3"/>
     </row>
-    <row r="134" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="2:24" ht="30" customHeight="1">
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4144,7 +4165,7 @@
       <c r="W134" s="7"/>
       <c r="X134" s="3"/>
     </row>
-    <row r="135" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="135" spans="2:24" ht="30" customHeight="1">
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4169,7 +4190,7 @@
       <c r="W135" s="7"/>
       <c r="X135" s="3"/>
     </row>
-    <row r="136" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="136" spans="2:24" ht="30" customHeight="1">
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -4194,7 +4215,7 @@
       <c r="W136" s="7"/>
       <c r="X136" s="3"/>
     </row>
-    <row r="137" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="2:24" ht="30" customHeight="1">
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4219,7 +4240,7 @@
       <c r="W137" s="7"/>
       <c r="X137" s="3"/>
     </row>
-    <row r="138" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="2:24" ht="30" customHeight="1">
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -4244,7 +4265,7 @@
       <c r="W138" s="7"/>
       <c r="X138" s="3"/>
     </row>
-    <row r="139" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="139" spans="2:24" ht="30" customHeight="1">
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -4269,7 +4290,7 @@
       <c r="W139" s="7"/>
       <c r="X139" s="3"/>
     </row>
-    <row r="140" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="2:24" ht="30" customHeight="1">
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -4294,7 +4315,7 @@
       <c r="W140" s="7"/>
       <c r="X140" s="3"/>
     </row>
-    <row r="141" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="141" spans="2:24" ht="30" customHeight="1">
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -4319,7 +4340,7 @@
       <c r="W141" s="7"/>
       <c r="X141" s="3"/>
     </row>
-    <row r="142" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="142" spans="2:24" ht="30" customHeight="1">
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -4344,95 +4365,106 @@
       <c r="W142" s="7"/>
       <c r="X142" s="3"/>
     </row>
-    <row r="143" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="143" spans="2:24" ht="30" customHeight="1">
       <c r="B143" s="8"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="144" spans="2:24" ht="30" customHeight="1">
       <c r="B144" s="8"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="145" spans="2:24" ht="30" customHeight="1">
       <c r="B145" s="8"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="146" spans="2:24" ht="30" customHeight="1">
       <c r="B146" s="8"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="147" spans="2:24" ht="30" customHeight="1">
       <c r="B147" s="8"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="148" spans="2:24" ht="30" customHeight="1">
       <c r="B148" s="8"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="2:24" ht="30" customHeight="1">
       <c r="B149" s="8"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="150" spans="2:24" ht="30" customHeight="1">
       <c r="B150" s="8"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="2:24" ht="30" customHeight="1">
       <c r="B151" s="8"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="152" spans="2:24" ht="30" customHeight="1">
       <c r="B152" s="8"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="153" spans="2:24" ht="30" customHeight="1">
       <c r="B153" s="8"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="154" spans="2:24" ht="30" customHeight="1">
       <c r="B154" s="8"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="155" spans="2:24" ht="30" customHeight="1">
       <c r="B155" s="8"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="156" spans="2:24" ht="30" customHeight="1">
       <c r="B156" s="8"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="2:24" ht="30" customHeight="1">
       <c r="B157" s="8"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="158" spans="2:24" ht="30" customHeight="1">
       <c r="B158" s="8"/>
     </row>
-    <row r="159" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="159" spans="2:24" ht="30" customHeight="1">
       <c r="B159" s="8"/>
     </row>
-    <row r="160" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="160" spans="2:24" ht="30" customHeight="1">
       <c r="B160" s="8"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="161" spans="2:2" ht="30" customHeight="1">
       <c r="B161" s="8"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="2:2" ht="30" customHeight="1">
       <c r="B162" s="8"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="163" spans="2:2" ht="30" customHeight="1">
       <c r="B163" s="8"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="164" spans="2:2" ht="30" customHeight="1">
       <c r="B164" s="8"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="2:2" ht="30" customHeight="1">
       <c r="B165" s="8"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="166" spans="2:2" ht="30" customHeight="1">
       <c r="B166" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4445,17 +4477,6 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ตรวจงาน/รายการตรวจสอบรายงานการประชุม.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบรายงานการประชุม.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6FFF4B-05BE-4762-B123-25EFEF936FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23844BFE-9060-4767-BEC3-54A4B790E596}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>คำผิด</t>
   </si>
@@ -171,17 +171,23 @@
   </si>
   <si>
     <t>1.6.1</t>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>ธนาธิป</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -261,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,13 +308,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -320,9 +323,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -338,7 +347,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -637,115 +646,115 @@
   <dimension ref="B2:X166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="1"/>
-    <col min="2" max="2" width="26.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="1"/>
-    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="26.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="1"/>
+    <col min="4" max="4" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="50.4" customHeight="1">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:24" ht="50.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="51.75" customHeight="1">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-    </row>
-    <row r="4" spans="2:24" ht="30" customHeight="1">
+    <row r="3" spans="2:24" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+    </row>
+    <row r="4" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
@@ -787,7 +796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="30" customHeight="1">
+    <row r="5" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
@@ -833,7 +842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="30" customHeight="1">
+    <row r="6" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
@@ -875,7 +884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:24" ht="30" customHeight="1">
+    <row r="7" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
@@ -912,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="30" customHeight="1">
+    <row r="8" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
@@ -951,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="30" customHeight="1">
+    <row r="9" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
@@ -990,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="30" customHeight="1">
+    <row r="10" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
@@ -1029,7 +1038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="30" customHeight="1">
+    <row r="11" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
@@ -1066,7 +1075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:24" ht="30" customHeight="1">
+    <row r="12" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="5" t="s">
         <v>43</v>
       </c>
@@ -1103,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:24" ht="30" customHeight="1">
+    <row r="13" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="5" t="s">
         <v>44</v>
       </c>
@@ -1140,11 +1149,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="30" customHeight="1">
-      <c r="B14" s="6"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+    <row r="14" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4">
+        <v>242749</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1163,9 +1180,11 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="2:24" ht="30" customHeight="1">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="6"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1190,7 +1209,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="2:24" ht="30" customHeight="1">
+    <row r="16" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1215,7 +1234,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="2:24" ht="30" customHeight="1">
+    <row r="17" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="6"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1240,7 +1259,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="2:24" ht="30" customHeight="1">
+    <row r="18" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="6"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1265,7 +1284,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="2:24" ht="30" customHeight="1">
+    <row r="19" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B19" s="6"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1290,7 +1309,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="2:24" ht="30" customHeight="1">
+    <row r="20" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B20" s="6"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1315,7 +1334,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="2:24" ht="30" customHeight="1">
+    <row r="21" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B21" s="6"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1340,7 +1359,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="2:24" ht="30" customHeight="1">
+    <row r="22" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B22" s="6"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1365,7 +1384,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="2:24" ht="30" customHeight="1">
+    <row r="23" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1390,7 +1409,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="2:24" ht="30" customHeight="1">
+    <row r="24" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B24" s="6"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1415,7 +1434,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="2:24" ht="30" customHeight="1">
+    <row r="25" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B25" s="6"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1440,7 +1459,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="2:24" ht="30" customHeight="1">
+    <row r="26" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B26" s="6"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1465,7 +1484,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="2:24" ht="30" customHeight="1">
+    <row r="27" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B27" s="6"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1490,7 +1509,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="2:24" ht="30" customHeight="1">
+    <row r="28" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B28" s="6"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1515,7 +1534,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="2:24" ht="30" customHeight="1">
+    <row r="29" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B29" s="6"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1540,7 +1559,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="2:24" ht="30" customHeight="1">
+    <row r="30" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B30" s="6"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1565,7 +1584,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="2:24" ht="30" customHeight="1">
+    <row r="31" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B31" s="6"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1590,7 +1609,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="2:24" ht="30" customHeight="1">
+    <row r="32" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B32" s="6"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1615,7 +1634,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="2:24" ht="30" customHeight="1">
+    <row r="33" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B33" s="6"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1640,7 +1659,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="2:24" ht="30" customHeight="1">
+    <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B34" s="6"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1665,7 +1684,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35" spans="2:24" ht="30" customHeight="1">
+    <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B35" s="6"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1690,7 +1709,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" spans="2:24" ht="30" customHeight="1">
+    <row r="36" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B36" s="6"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1715,7 +1734,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" spans="2:24" ht="30" customHeight="1">
+    <row r="37" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B37" s="6"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1740,7 +1759,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="2:24" ht="30" customHeight="1">
+    <row r="38" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B38" s="6"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1765,7 +1784,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="2:24" ht="30" customHeight="1">
+    <row r="39" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B39" s="6"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1790,7 +1809,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="2:24" ht="30" customHeight="1">
+    <row r="40" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B40" s="6"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1815,7 +1834,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" spans="2:24" ht="30" customHeight="1">
+    <row r="41" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B41" s="6"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1840,7 +1859,7 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="2:24" ht="30" customHeight="1">
+    <row r="42" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B42" s="6"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1865,7 +1884,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="2:24" ht="30" customHeight="1">
+    <row r="43" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B43" s="6"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1890,7 +1909,7 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" spans="2:24" ht="30" customHeight="1">
+    <row r="44" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1915,7 +1934,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45" spans="2:24" ht="30" customHeight="1">
+    <row r="45" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B45" s="6"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1940,7 +1959,7 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="2:24" ht="30" customHeight="1">
+    <row r="46" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B46" s="6"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1965,7 +1984,7 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="2:24" ht="30" customHeight="1">
+    <row r="47" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B47" s="6"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1990,7 +2009,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="2:24" ht="30" customHeight="1">
+    <row r="48" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B48" s="6"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2015,7 +2034,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" spans="2:24" ht="30" customHeight="1">
+    <row r="49" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B49" s="6"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2040,7 +2059,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="2:24" ht="30" customHeight="1">
+    <row r="50" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B50" s="6"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2065,7 +2084,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="2:24" ht="30" customHeight="1">
+    <row r="51" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B51" s="6"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2090,7 +2109,7 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="2:24" ht="30" customHeight="1">
+    <row r="52" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B52" s="6"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2115,7 +2134,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" spans="2:24" ht="30" customHeight="1">
+    <row r="53" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B53" s="6"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2140,7 +2159,7 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" spans="2:24" ht="30" customHeight="1">
+    <row r="54" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B54" s="6"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2165,7 +2184,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" spans="2:24" ht="30" customHeight="1">
+    <row r="55" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B55" s="6"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2190,7 +2209,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56" spans="2:24" ht="30" customHeight="1">
+    <row r="56" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B56" s="6"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2215,7 +2234,7 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57" spans="2:24" ht="30" customHeight="1">
+    <row r="57" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B57" s="6"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2240,7 +2259,7 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="2:24" ht="30" customHeight="1">
+    <row r="58" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B58" s="6"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2265,7 +2284,7 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59" spans="2:24" ht="30" customHeight="1">
+    <row r="59" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B59" s="6"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2290,7 +2309,7 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60" spans="2:24" ht="30" customHeight="1">
+    <row r="60" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B60" s="6"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2315,7 +2334,7 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61" spans="2:24" ht="30" customHeight="1">
+    <row r="61" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B61" s="6"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2340,7 +2359,7 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
     </row>
-    <row r="62" spans="2:24" ht="30" customHeight="1">
+    <row r="62" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B62" s="6"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2365,7 +2384,7 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63" spans="2:24" ht="30" customHeight="1">
+    <row r="63" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B63" s="6"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2390,7 +2409,7 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="2:24" ht="30" customHeight="1">
+    <row r="64" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B64" s="6"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2415,7 +2434,7 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65" spans="2:24" ht="30" customHeight="1">
+    <row r="65" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2440,7 +2459,7 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66" spans="2:24" ht="30" customHeight="1">
+    <row r="66" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B66" s="6"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2465,7 +2484,7 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67" spans="2:24" ht="30" customHeight="1">
+    <row r="67" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B67" s="6"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2490,7 +2509,7 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68" spans="2:24" ht="30" customHeight="1">
+    <row r="68" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B68" s="6"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2515,7 +2534,7 @@
       <c r="W68" s="7"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69" spans="2:24" ht="30" customHeight="1">
+    <row r="69" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2540,7 +2559,7 @@
       <c r="W69" s="7"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="2:24" ht="30" customHeight="1">
+    <row r="70" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2565,7 +2584,7 @@
       <c r="W70" s="7"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71" spans="2:24" ht="30" customHeight="1">
+    <row r="71" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2590,7 +2609,7 @@
       <c r="W71" s="7"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72" spans="2:24" ht="30" customHeight="1">
+    <row r="72" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2615,7 +2634,7 @@
       <c r="W72" s="7"/>
       <c r="X72" s="3"/>
     </row>
-    <row r="73" spans="2:24" ht="30" customHeight="1">
+    <row r="73" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2640,7 +2659,7 @@
       <c r="W73" s="7"/>
       <c r="X73" s="3"/>
     </row>
-    <row r="74" spans="2:24" ht="30" customHeight="1">
+    <row r="74" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2665,7 +2684,7 @@
       <c r="W74" s="7"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75" spans="2:24" ht="30" customHeight="1">
+    <row r="75" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2690,7 +2709,7 @@
       <c r="W75" s="7"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76" spans="2:24" ht="30" customHeight="1">
+    <row r="76" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2715,7 +2734,7 @@
       <c r="W76" s="7"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77" spans="2:24" ht="30" customHeight="1">
+    <row r="77" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2740,7 +2759,7 @@
       <c r="W77" s="7"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78" spans="2:24" ht="30" customHeight="1">
+    <row r="78" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2765,7 +2784,7 @@
       <c r="W78" s="7"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79" spans="2:24" ht="30" customHeight="1">
+    <row r="79" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2790,7 +2809,7 @@
       <c r="W79" s="7"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80" spans="2:24" ht="30" customHeight="1">
+    <row r="80" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2815,7 +2834,7 @@
       <c r="W80" s="7"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81" spans="2:24" ht="30" customHeight="1">
+    <row r="81" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2840,7 +2859,7 @@
       <c r="W81" s="7"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82" spans="2:24" ht="30" customHeight="1">
+    <row r="82" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2865,7 +2884,7 @@
       <c r="W82" s="7"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83" spans="2:24" ht="30" customHeight="1">
+    <row r="83" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -2890,7 +2909,7 @@
       <c r="W83" s="7"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84" spans="2:24" ht="30" customHeight="1">
+    <row r="84" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -2915,7 +2934,7 @@
       <c r="W84" s="7"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85" spans="2:24" ht="30" customHeight="1">
+    <row r="85" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -2940,7 +2959,7 @@
       <c r="W85" s="7"/>
       <c r="X85" s="3"/>
     </row>
-    <row r="86" spans="2:24" ht="30" customHeight="1">
+    <row r="86" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -2965,7 +2984,7 @@
       <c r="W86" s="7"/>
       <c r="X86" s="3"/>
     </row>
-    <row r="87" spans="2:24" ht="30" customHeight="1">
+    <row r="87" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -2990,7 +3009,7 @@
       <c r="W87" s="7"/>
       <c r="X87" s="3"/>
     </row>
-    <row r="88" spans="2:24" ht="30" customHeight="1">
+    <row r="88" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3015,7 +3034,7 @@
       <c r="W88" s="7"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89" spans="2:24" ht="30" customHeight="1">
+    <row r="89" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3040,7 +3059,7 @@
       <c r="W89" s="7"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" spans="2:24" ht="30" customHeight="1">
+    <row r="90" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3065,7 +3084,7 @@
       <c r="W90" s="7"/>
       <c r="X90" s="3"/>
     </row>
-    <row r="91" spans="2:24" ht="30" customHeight="1">
+    <row r="91" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3090,7 +3109,7 @@
       <c r="W91" s="7"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" spans="2:24" ht="30" customHeight="1">
+    <row r="92" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3115,7 +3134,7 @@
       <c r="W92" s="7"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" spans="2:24" ht="30" customHeight="1">
+    <row r="93" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3140,7 +3159,7 @@
       <c r="W93" s="7"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" spans="2:24" ht="30" customHeight="1">
+    <row r="94" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3165,7 +3184,7 @@
       <c r="W94" s="7"/>
       <c r="X94" s="3"/>
     </row>
-    <row r="95" spans="2:24" ht="30" customHeight="1">
+    <row r="95" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3190,7 +3209,7 @@
       <c r="W95" s="7"/>
       <c r="X95" s="3"/>
     </row>
-    <row r="96" spans="2:24" ht="30" customHeight="1">
+    <row r="96" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3215,7 +3234,7 @@
       <c r="W96" s="7"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" spans="2:24" ht="30" customHeight="1">
+    <row r="97" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3240,7 +3259,7 @@
       <c r="W97" s="7"/>
       <c r="X97" s="3"/>
     </row>
-    <row r="98" spans="2:24" ht="30" customHeight="1">
+    <row r="98" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3265,7 +3284,7 @@
       <c r="W98" s="7"/>
       <c r="X98" s="3"/>
     </row>
-    <row r="99" spans="2:24" ht="30" customHeight="1">
+    <row r="99" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3290,7 +3309,7 @@
       <c r="W99" s="7"/>
       <c r="X99" s="3"/>
     </row>
-    <row r="100" spans="2:24" ht="30" customHeight="1">
+    <row r="100" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3315,7 +3334,7 @@
       <c r="W100" s="7"/>
       <c r="X100" s="3"/>
     </row>
-    <row r="101" spans="2:24" ht="30" customHeight="1">
+    <row r="101" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3340,7 +3359,7 @@
       <c r="W101" s="7"/>
       <c r="X101" s="3"/>
     </row>
-    <row r="102" spans="2:24" ht="30" customHeight="1">
+    <row r="102" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3365,7 +3384,7 @@
       <c r="W102" s="7"/>
       <c r="X102" s="3"/>
     </row>
-    <row r="103" spans="2:24" ht="30" customHeight="1">
+    <row r="103" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3390,7 +3409,7 @@
       <c r="W103" s="7"/>
       <c r="X103" s="3"/>
     </row>
-    <row r="104" spans="2:24" ht="30" customHeight="1">
+    <row r="104" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3415,7 +3434,7 @@
       <c r="W104" s="7"/>
       <c r="X104" s="3"/>
     </row>
-    <row r="105" spans="2:24" ht="30" customHeight="1">
+    <row r="105" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3440,7 +3459,7 @@
       <c r="W105" s="7"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106" spans="2:24" ht="30" customHeight="1">
+    <row r="106" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3465,7 +3484,7 @@
       <c r="W106" s="7"/>
       <c r="X106" s="3"/>
     </row>
-    <row r="107" spans="2:24" ht="30" customHeight="1">
+    <row r="107" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3490,7 +3509,7 @@
       <c r="W107" s="7"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108" spans="2:24" ht="30" customHeight="1">
+    <row r="108" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3515,7 +3534,7 @@
       <c r="W108" s="7"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109" spans="2:24" ht="30" customHeight="1">
+    <row r="109" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3540,7 +3559,7 @@
       <c r="W109" s="7"/>
       <c r="X109" s="3"/>
     </row>
-    <row r="110" spans="2:24" ht="30" customHeight="1">
+    <row r="110" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3565,7 +3584,7 @@
       <c r="W110" s="7"/>
       <c r="X110" s="3"/>
     </row>
-    <row r="111" spans="2:24" ht="30" customHeight="1">
+    <row r="111" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3590,7 +3609,7 @@
       <c r="W111" s="7"/>
       <c r="X111" s="3"/>
     </row>
-    <row r="112" spans="2:24" ht="30" customHeight="1">
+    <row r="112" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3615,7 +3634,7 @@
       <c r="W112" s="7"/>
       <c r="X112" s="3"/>
     </row>
-    <row r="113" spans="2:24" ht="30" customHeight="1">
+    <row r="113" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3640,7 +3659,7 @@
       <c r="W113" s="7"/>
       <c r="X113" s="3"/>
     </row>
-    <row r="114" spans="2:24" ht="30" customHeight="1">
+    <row r="114" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3665,7 +3684,7 @@
       <c r="W114" s="7"/>
       <c r="X114" s="3"/>
     </row>
-    <row r="115" spans="2:24" ht="30" customHeight="1">
+    <row r="115" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3690,7 +3709,7 @@
       <c r="W115" s="7"/>
       <c r="X115" s="3"/>
     </row>
-    <row r="116" spans="2:24" ht="30" customHeight="1">
+    <row r="116" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3715,7 +3734,7 @@
       <c r="W116" s="7"/>
       <c r="X116" s="3"/>
     </row>
-    <row r="117" spans="2:24" ht="30" customHeight="1">
+    <row r="117" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -3740,7 +3759,7 @@
       <c r="W117" s="7"/>
       <c r="X117" s="3"/>
     </row>
-    <row r="118" spans="2:24" ht="30" customHeight="1">
+    <row r="118" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -3765,7 +3784,7 @@
       <c r="W118" s="7"/>
       <c r="X118" s="3"/>
     </row>
-    <row r="119" spans="2:24" ht="30" customHeight="1">
+    <row r="119" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -3790,7 +3809,7 @@
       <c r="W119" s="7"/>
       <c r="X119" s="3"/>
     </row>
-    <row r="120" spans="2:24" ht="30" customHeight="1">
+    <row r="120" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -3815,7 +3834,7 @@
       <c r="W120" s="7"/>
       <c r="X120" s="3"/>
     </row>
-    <row r="121" spans="2:24" ht="30" customHeight="1">
+    <row r="121" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -3840,7 +3859,7 @@
       <c r="W121" s="7"/>
       <c r="X121" s="3"/>
     </row>
-    <row r="122" spans="2:24" ht="30" customHeight="1">
+    <row r="122" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -3865,7 +3884,7 @@
       <c r="W122" s="7"/>
       <c r="X122" s="3"/>
     </row>
-    <row r="123" spans="2:24" ht="30" customHeight="1">
+    <row r="123" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -3890,7 +3909,7 @@
       <c r="W123" s="7"/>
       <c r="X123" s="3"/>
     </row>
-    <row r="124" spans="2:24" ht="30" customHeight="1">
+    <row r="124" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -3915,7 +3934,7 @@
       <c r="W124" s="7"/>
       <c r="X124" s="3"/>
     </row>
-    <row r="125" spans="2:24" ht="30" customHeight="1">
+    <row r="125" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -3940,7 +3959,7 @@
       <c r="W125" s="7"/>
       <c r="X125" s="3"/>
     </row>
-    <row r="126" spans="2:24" ht="30" customHeight="1">
+    <row r="126" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -3965,7 +3984,7 @@
       <c r="W126" s="7"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127" spans="2:24" ht="30" customHeight="1">
+    <row r="127" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -3990,7 +4009,7 @@
       <c r="W127" s="7"/>
       <c r="X127" s="3"/>
     </row>
-    <row r="128" spans="2:24" ht="30" customHeight="1">
+    <row r="128" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4015,7 +4034,7 @@
       <c r="W128" s="7"/>
       <c r="X128" s="3"/>
     </row>
-    <row r="129" spans="2:24" ht="30" customHeight="1">
+    <row r="129" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4040,7 +4059,7 @@
       <c r="W129" s="7"/>
       <c r="X129" s="3"/>
     </row>
-    <row r="130" spans="2:24" ht="30" customHeight="1">
+    <row r="130" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4065,7 +4084,7 @@
       <c r="W130" s="7"/>
       <c r="X130" s="3"/>
     </row>
-    <row r="131" spans="2:24" ht="30" customHeight="1">
+    <row r="131" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4090,7 +4109,7 @@
       <c r="W131" s="7"/>
       <c r="X131" s="3"/>
     </row>
-    <row r="132" spans="2:24" ht="30" customHeight="1">
+    <row r="132" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4115,7 +4134,7 @@
       <c r="W132" s="7"/>
       <c r="X132" s="3"/>
     </row>
-    <row r="133" spans="2:24" ht="30" customHeight="1">
+    <row r="133" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4140,7 +4159,7 @@
       <c r="W133" s="7"/>
       <c r="X133" s="3"/>
     </row>
-    <row r="134" spans="2:24" ht="30" customHeight="1">
+    <row r="134" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4165,7 +4184,7 @@
       <c r="W134" s="7"/>
       <c r="X134" s="3"/>
     </row>
-    <row r="135" spans="2:24" ht="30" customHeight="1">
+    <row r="135" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4190,7 +4209,7 @@
       <c r="W135" s="7"/>
       <c r="X135" s="3"/>
     </row>
-    <row r="136" spans="2:24" ht="30" customHeight="1">
+    <row r="136" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -4215,7 +4234,7 @@
       <c r="W136" s="7"/>
       <c r="X136" s="3"/>
     </row>
-    <row r="137" spans="2:24" ht="30" customHeight="1">
+    <row r="137" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4240,7 +4259,7 @@
       <c r="W137" s="7"/>
       <c r="X137" s="3"/>
     </row>
-    <row r="138" spans="2:24" ht="30" customHeight="1">
+    <row r="138" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -4265,7 +4284,7 @@
       <c r="W138" s="7"/>
       <c r="X138" s="3"/>
     </row>
-    <row r="139" spans="2:24" ht="30" customHeight="1">
+    <row r="139" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -4290,7 +4309,7 @@
       <c r="W139" s="7"/>
       <c r="X139" s="3"/>
     </row>
-    <row r="140" spans="2:24" ht="30" customHeight="1">
+    <row r="140" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -4315,7 +4334,7 @@
       <c r="W140" s="7"/>
       <c r="X140" s="3"/>
     </row>
-    <row r="141" spans="2:24" ht="30" customHeight="1">
+    <row r="141" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -4340,7 +4359,7 @@
       <c r="W141" s="7"/>
       <c r="X141" s="3"/>
     </row>
-    <row r="142" spans="2:24" ht="30" customHeight="1">
+    <row r="142" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -4365,106 +4384,95 @@
       <c r="W142" s="7"/>
       <c r="X142" s="3"/>
     </row>
-    <row r="143" spans="2:24" ht="30" customHeight="1">
+    <row r="143" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B143" s="8"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="2:24" ht="30" customHeight="1">
+    <row r="144" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B144" s="8"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="2:24" ht="30" customHeight="1">
+    <row r="145" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B145" s="8"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="2:24" ht="30" customHeight="1">
+    <row r="146" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B146" s="8"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="2:24" ht="30" customHeight="1">
+    <row r="147" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B147" s="8"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="2:24" ht="30" customHeight="1">
+    <row r="148" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B148" s="8"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="2:24" ht="30" customHeight="1">
+    <row r="149" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B149" s="8"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="2:24" ht="30" customHeight="1">
+    <row r="150" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B150" s="8"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="2:24" ht="30" customHeight="1">
+    <row r="151" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B151" s="8"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="2:24" ht="30" customHeight="1">
+    <row r="152" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B152" s="8"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="2:24" ht="30" customHeight="1">
+    <row r="153" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B153" s="8"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="2:24" ht="30" customHeight="1">
+    <row r="154" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B154" s="8"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="2:24" ht="30" customHeight="1">
+    <row r="155" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B155" s="8"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="2:24" ht="30" customHeight="1">
+    <row r="156" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B156" s="8"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="2:24" ht="30" customHeight="1">
+    <row r="157" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B157" s="8"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="2:24" ht="30" customHeight="1">
+    <row r="158" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B158" s="8"/>
     </row>
-    <row r="159" spans="2:24" ht="30" customHeight="1">
+    <row r="159" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B159" s="8"/>
     </row>
-    <row r="160" spans="2:24" ht="30" customHeight="1">
+    <row r="160" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B160" s="8"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1">
+    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B161" s="8"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1">
+    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B162" s="8"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1">
+    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B163" s="8"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1">
+    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B164" s="8"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1">
+    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B165" s="8"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1">
+    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B166" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4477,6 +4485,17 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ตรวจงาน/รายการตรวจสอบรายงานการประชุม.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบรายงานการประชุม.xlsx
@@ -5,35 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nice-\Desktop\Porn\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23844BFE-9060-4767-BEC3-54A4B790E596}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6326AB4D-075D-45ED-A06B-EA980D85D0DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="270" yWindow="3735" windowWidth="21600" windowHeight="11835" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>คำผิด</t>
   </si>
@@ -177,17 +169,29 @@
   </si>
   <si>
     <t>ธนาธิป</t>
+  </si>
+  <si>
+    <t>รายงานการประชุมทีม ครั้งที่ 8</t>
+  </si>
+  <si>
+    <t>รายงานการประชุม ครั้งที่ 6</t>
+  </si>
+  <si>
+    <t>รายงานการประชุมทีม ครั้งที่ 7</t>
+  </si>
+  <si>
+    <t>1.8.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -267,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,7 +315,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -323,15 +336,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -347,7 +354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -645,116 +652,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="26.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="1"/>
-    <col min="4" max="4" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="26.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="50.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:24" ht="50.45" customHeight="1">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-    </row>
-    <row r="4" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:24" ht="51.75" customHeight="1">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+    </row>
+    <row r="4" spans="2:24" ht="30" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
@@ -796,7 +803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:24" ht="30" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
@@ -842,7 +849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:24" ht="30" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
@@ -884,7 +891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:24" ht="30" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
@@ -921,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:24" ht="30" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
@@ -960,7 +967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:24" ht="30" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
@@ -999,7 +1006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:24" ht="30" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
@@ -1038,7 +1045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:24" ht="30" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
@@ -1075,7 +1082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:24" ht="30" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>43</v>
       </c>
@@ -1112,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="2:24" ht="30" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>44</v>
       </c>
@@ -1149,9 +1156,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="2:24" ht="30" customHeight="1">
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>46</v>
@@ -1184,12 +1191,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B15" s="6"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+    <row r="15" spans="2:24" ht="30" customHeight="1">
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4">
+        <v>242757</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1207,13 +1224,23 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B16" s="6"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="X15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" ht="30" customHeight="1">
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4">
+        <v>242757</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1225,16 +1252,20 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="X16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" ht="30" customHeight="1">
       <c r="B17" s="6"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1259,7 +1290,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:24" ht="30" customHeight="1">
       <c r="B18" s="6"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1284,7 +1315,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:24" ht="30" customHeight="1">
       <c r="B19" s="6"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1309,7 +1340,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:24" ht="30" customHeight="1">
       <c r="B20" s="6"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1334,7 +1365,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:24" ht="30" customHeight="1">
       <c r="B21" s="6"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1359,7 +1390,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:24" ht="30" customHeight="1">
       <c r="B22" s="6"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1384,7 +1415,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:24" ht="30" customHeight="1">
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1409,7 +1440,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:24" ht="30" customHeight="1">
       <c r="B24" s="6"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1434,7 +1465,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:24" ht="30" customHeight="1">
       <c r="B25" s="6"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1459,7 +1490,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:24" ht="30" customHeight="1">
       <c r="B26" s="6"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1484,7 +1515,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:24" ht="30" customHeight="1">
       <c r="B27" s="6"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1509,7 +1540,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:24" ht="30" customHeight="1">
       <c r="B28" s="6"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1534,7 +1565,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:24" ht="30" customHeight="1">
       <c r="B29" s="6"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1559,7 +1590,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:24" ht="30" customHeight="1">
       <c r="B30" s="6"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1584,7 +1615,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:24" ht="30" customHeight="1">
       <c r="B31" s="6"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1609,7 +1640,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:24" ht="30" customHeight="1">
       <c r="B32" s="6"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1634,7 +1665,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:24" ht="30" customHeight="1">
       <c r="B33" s="6"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1659,7 +1690,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:24" ht="30" customHeight="1">
       <c r="B34" s="6"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1684,7 +1715,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:24" ht="30" customHeight="1">
       <c r="B35" s="6"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1709,7 +1740,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:24" ht="30" customHeight="1">
       <c r="B36" s="6"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1734,7 +1765,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="2:24" ht="30" customHeight="1">
       <c r="B37" s="6"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1759,7 +1790,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:24" ht="30" customHeight="1">
       <c r="B38" s="6"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1784,7 +1815,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="2:24" ht="30" customHeight="1">
       <c r="B39" s="6"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1809,7 +1840,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="2:24" ht="30" customHeight="1">
       <c r="B40" s="6"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1834,7 +1865,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="2:24" ht="30" customHeight="1">
       <c r="B41" s="6"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1859,7 +1890,7 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="2:24" ht="30" customHeight="1">
       <c r="B42" s="6"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1884,7 +1915,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="2:24" ht="30" customHeight="1">
       <c r="B43" s="6"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1909,7 +1940,7 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="2:24" ht="30" customHeight="1">
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1934,7 +1965,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="2:24" ht="30" customHeight="1">
       <c r="B45" s="6"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1959,7 +1990,7 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="2:24" ht="30" customHeight="1">
       <c r="B46" s="6"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1984,7 +2015,7 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:24" ht="30" customHeight="1">
       <c r="B47" s="6"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2009,7 +2040,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="2:24" ht="30" customHeight="1">
       <c r="B48" s="6"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2034,7 +2065,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="2:24" ht="30" customHeight="1">
       <c r="B49" s="6"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2059,7 +2090,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="2:24" ht="30" customHeight="1">
       <c r="B50" s="6"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2084,7 +2115,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="2:24" ht="30" customHeight="1">
       <c r="B51" s="6"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2109,7 +2140,7 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="2:24" ht="30" customHeight="1">
       <c r="B52" s="6"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2134,7 +2165,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="2:24" ht="30" customHeight="1">
       <c r="B53" s="6"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2159,7 +2190,7 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="2:24" ht="30" customHeight="1">
       <c r="B54" s="6"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2184,7 +2215,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="2:24" ht="30" customHeight="1">
       <c r="B55" s="6"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2209,7 +2240,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="2:24" ht="30" customHeight="1">
       <c r="B56" s="6"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2234,7 +2265,7 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="2:24" ht="30" customHeight="1">
       <c r="B57" s="6"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2259,7 +2290,7 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="2:24" ht="30" customHeight="1">
       <c r="B58" s="6"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2284,7 +2315,7 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="2:24" ht="30" customHeight="1">
       <c r="B59" s="6"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2309,7 +2340,7 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="2:24" ht="30" customHeight="1">
       <c r="B60" s="6"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2334,7 +2365,7 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="2:24" ht="30" customHeight="1">
       <c r="B61" s="6"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2359,7 +2390,7 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
     </row>
-    <row r="62" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="2:24" ht="30" customHeight="1">
       <c r="B62" s="6"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2384,7 +2415,7 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="2:24" ht="30" customHeight="1">
       <c r="B63" s="6"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2409,7 +2440,7 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="2:24" ht="30" customHeight="1">
       <c r="B64" s="6"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2434,7 +2465,7 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="2:24" ht="30" customHeight="1">
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2459,7 +2490,7 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="2:24" ht="30" customHeight="1">
       <c r="B66" s="6"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2484,7 +2515,7 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="2:24" ht="30" customHeight="1">
       <c r="B67" s="6"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2509,7 +2540,7 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="2:24" ht="30" customHeight="1">
       <c r="B68" s="6"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2534,7 +2565,7 @@
       <c r="W68" s="7"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="2:24" ht="30" customHeight="1">
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2559,7 +2590,7 @@
       <c r="W69" s="7"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="2:24" ht="30" customHeight="1">
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2584,7 +2615,7 @@
       <c r="W70" s="7"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="2:24" ht="30" customHeight="1">
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2609,7 +2640,7 @@
       <c r="W71" s="7"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="2:24" ht="30" customHeight="1">
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2634,7 +2665,7 @@
       <c r="W72" s="7"/>
       <c r="X72" s="3"/>
     </row>
-    <row r="73" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="2:24" ht="30" customHeight="1">
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2659,7 +2690,7 @@
       <c r="W73" s="7"/>
       <c r="X73" s="3"/>
     </row>
-    <row r="74" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="2:24" ht="30" customHeight="1">
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2684,7 +2715,7 @@
       <c r="W74" s="7"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="2:24" ht="30" customHeight="1">
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2709,7 +2740,7 @@
       <c r="W75" s="7"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="2:24" ht="30" customHeight="1">
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2734,7 +2765,7 @@
       <c r="W76" s="7"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="2:24" ht="30" customHeight="1">
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2759,7 +2790,7 @@
       <c r="W77" s="7"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="2:24" ht="30" customHeight="1">
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2784,7 +2815,7 @@
       <c r="W78" s="7"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="2:24" ht="30" customHeight="1">
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2809,7 +2840,7 @@
       <c r="W79" s="7"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="2:24" ht="30" customHeight="1">
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2834,7 +2865,7 @@
       <c r="W80" s="7"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="2:24" ht="30" customHeight="1">
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2859,7 +2890,7 @@
       <c r="W81" s="7"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="2:24" ht="30" customHeight="1">
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2884,7 +2915,7 @@
       <c r="W82" s="7"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="2:24" ht="30" customHeight="1">
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -2909,7 +2940,7 @@
       <c r="W83" s="7"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="2:24" ht="30" customHeight="1">
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -2934,7 +2965,7 @@
       <c r="W84" s="7"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="2:24" ht="30" customHeight="1">
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -2959,7 +2990,7 @@
       <c r="W85" s="7"/>
       <c r="X85" s="3"/>
     </row>
-    <row r="86" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="2:24" ht="30" customHeight="1">
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -2984,7 +3015,7 @@
       <c r="W86" s="7"/>
       <c r="X86" s="3"/>
     </row>
-    <row r="87" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="2:24" ht="30" customHeight="1">
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3009,7 +3040,7 @@
       <c r="W87" s="7"/>
       <c r="X87" s="3"/>
     </row>
-    <row r="88" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="2:24" ht="30" customHeight="1">
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3034,7 +3065,7 @@
       <c r="W88" s="7"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="2:24" ht="30" customHeight="1">
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3059,7 +3090,7 @@
       <c r="W89" s="7"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="2:24" ht="30" customHeight="1">
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3084,7 +3115,7 @@
       <c r="W90" s="7"/>
       <c r="X90" s="3"/>
     </row>
-    <row r="91" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="2:24" ht="30" customHeight="1">
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3109,7 +3140,7 @@
       <c r="W91" s="7"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="2:24" ht="30" customHeight="1">
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3134,7 +3165,7 @@
       <c r="W92" s="7"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="2:24" ht="30" customHeight="1">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3159,7 +3190,7 @@
       <c r="W93" s="7"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="2:24" ht="30" customHeight="1">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3184,7 +3215,7 @@
       <c r="W94" s="7"/>
       <c r="X94" s="3"/>
     </row>
-    <row r="95" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="2:24" ht="30" customHeight="1">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3209,7 +3240,7 @@
       <c r="W95" s="7"/>
       <c r="X95" s="3"/>
     </row>
-    <row r="96" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="2:24" ht="30" customHeight="1">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3234,7 +3265,7 @@
       <c r="W96" s="7"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="2:24" ht="30" customHeight="1">
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3259,7 +3290,7 @@
       <c r="W97" s="7"/>
       <c r="X97" s="3"/>
     </row>
-    <row r="98" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="98" spans="2:24" ht="30" customHeight="1">
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3284,7 +3315,7 @@
       <c r="W98" s="7"/>
       <c r="X98" s="3"/>
     </row>
-    <row r="99" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="2:24" ht="30" customHeight="1">
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3309,7 +3340,7 @@
       <c r="W99" s="7"/>
       <c r="X99" s="3"/>
     </row>
-    <row r="100" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="100" spans="2:24" ht="30" customHeight="1">
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3334,7 +3365,7 @@
       <c r="W100" s="7"/>
       <c r="X100" s="3"/>
     </row>
-    <row r="101" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="2:24" ht="30" customHeight="1">
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3359,7 +3390,7 @@
       <c r="W101" s="7"/>
       <c r="X101" s="3"/>
     </row>
-    <row r="102" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="2:24" ht="30" customHeight="1">
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3384,7 +3415,7 @@
       <c r="W102" s="7"/>
       <c r="X102" s="3"/>
     </row>
-    <row r="103" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="2:24" ht="30" customHeight="1">
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3409,7 +3440,7 @@
       <c r="W103" s="7"/>
       <c r="X103" s="3"/>
     </row>
-    <row r="104" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="104" spans="2:24" ht="30" customHeight="1">
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3434,7 +3465,7 @@
       <c r="W104" s="7"/>
       <c r="X104" s="3"/>
     </row>
-    <row r="105" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="2:24" ht="30" customHeight="1">
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3459,7 +3490,7 @@
       <c r="W105" s="7"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="2:24" ht="30" customHeight="1">
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3484,7 +3515,7 @@
       <c r="W106" s="7"/>
       <c r="X106" s="3"/>
     </row>
-    <row r="107" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="2:24" ht="30" customHeight="1">
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3509,7 +3540,7 @@
       <c r="W107" s="7"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="2:24" ht="30" customHeight="1">
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3534,7 +3565,7 @@
       <c r="W108" s="7"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="2:24" ht="30" customHeight="1">
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3559,7 +3590,7 @@
       <c r="W109" s="7"/>
       <c r="X109" s="3"/>
     </row>
-    <row r="110" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="2:24" ht="30" customHeight="1">
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3584,7 +3615,7 @@
       <c r="W110" s="7"/>
       <c r="X110" s="3"/>
     </row>
-    <row r="111" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="2:24" ht="30" customHeight="1">
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3609,7 +3640,7 @@
       <c r="W111" s="7"/>
       <c r="X111" s="3"/>
     </row>
-    <row r="112" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="2:24" ht="30" customHeight="1">
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3634,7 +3665,7 @@
       <c r="W112" s="7"/>
       <c r="X112" s="3"/>
     </row>
-    <row r="113" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="2:24" ht="30" customHeight="1">
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3659,7 +3690,7 @@
       <c r="W113" s="7"/>
       <c r="X113" s="3"/>
     </row>
-    <row r="114" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="2:24" ht="30" customHeight="1">
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3684,7 +3715,7 @@
       <c r="W114" s="7"/>
       <c r="X114" s="3"/>
     </row>
-    <row r="115" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="115" spans="2:24" ht="30" customHeight="1">
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3709,7 +3740,7 @@
       <c r="W115" s="7"/>
       <c r="X115" s="3"/>
     </row>
-    <row r="116" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="2:24" ht="30" customHeight="1">
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3734,7 +3765,7 @@
       <c r="W116" s="7"/>
       <c r="X116" s="3"/>
     </row>
-    <row r="117" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="2:24" ht="30" customHeight="1">
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -3759,7 +3790,7 @@
       <c r="W117" s="7"/>
       <c r="X117" s="3"/>
     </row>
-    <row r="118" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="2:24" ht="30" customHeight="1">
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -3784,7 +3815,7 @@
       <c r="W118" s="7"/>
       <c r="X118" s="3"/>
     </row>
-    <row r="119" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="2:24" ht="30" customHeight="1">
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -3809,7 +3840,7 @@
       <c r="W119" s="7"/>
       <c r="X119" s="3"/>
     </row>
-    <row r="120" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="2:24" ht="30" customHeight="1">
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -3834,7 +3865,7 @@
       <c r="W120" s="7"/>
       <c r="X120" s="3"/>
     </row>
-    <row r="121" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="2:24" ht="30" customHeight="1">
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -3859,7 +3890,7 @@
       <c r="W121" s="7"/>
       <c r="X121" s="3"/>
     </row>
-    <row r="122" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="2:24" ht="30" customHeight="1">
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -3884,7 +3915,7 @@
       <c r="W122" s="7"/>
       <c r="X122" s="3"/>
     </row>
-    <row r="123" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="2:24" ht="30" customHeight="1">
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -3909,7 +3940,7 @@
       <c r="W123" s="7"/>
       <c r="X123" s="3"/>
     </row>
-    <row r="124" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="2:24" ht="30" customHeight="1">
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -3934,7 +3965,7 @@
       <c r="W124" s="7"/>
       <c r="X124" s="3"/>
     </row>
-    <row r="125" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="2:24" ht="30" customHeight="1">
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -3959,7 +3990,7 @@
       <c r="W125" s="7"/>
       <c r="X125" s="3"/>
     </row>
-    <row r="126" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="2:24" ht="30" customHeight="1">
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -3984,7 +4015,7 @@
       <c r="W126" s="7"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="2:24" ht="30" customHeight="1">
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4009,7 +4040,7 @@
       <c r="W127" s="7"/>
       <c r="X127" s="3"/>
     </row>
-    <row r="128" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="2:24" ht="30" customHeight="1">
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4034,7 +4065,7 @@
       <c r="W128" s="7"/>
       <c r="X128" s="3"/>
     </row>
-    <row r="129" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="2:24" ht="30" customHeight="1">
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4059,7 +4090,7 @@
       <c r="W129" s="7"/>
       <c r="X129" s="3"/>
     </row>
-    <row r="130" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="2:24" ht="30" customHeight="1">
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4084,7 +4115,7 @@
       <c r="W130" s="7"/>
       <c r="X130" s="3"/>
     </row>
-    <row r="131" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="2:24" ht="30" customHeight="1">
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4109,7 +4140,7 @@
       <c r="W131" s="7"/>
       <c r="X131" s="3"/>
     </row>
-    <row r="132" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="2:24" ht="30" customHeight="1">
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4134,7 +4165,7 @@
       <c r="W132" s="7"/>
       <c r="X132" s="3"/>
     </row>
-    <row r="133" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="2:24" ht="30" customHeight="1">
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4159,7 +4190,7 @@
       <c r="W133" s="7"/>
       <c r="X133" s="3"/>
     </row>
-    <row r="134" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="2:24" ht="30" customHeight="1">
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4184,7 +4215,7 @@
       <c r="W134" s="7"/>
       <c r="X134" s="3"/>
     </row>
-    <row r="135" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="135" spans="2:24" ht="30" customHeight="1">
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4209,7 +4240,7 @@
       <c r="W135" s="7"/>
       <c r="X135" s="3"/>
     </row>
-    <row r="136" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="136" spans="2:24" ht="30" customHeight="1">
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -4234,7 +4265,7 @@
       <c r="W136" s="7"/>
       <c r="X136" s="3"/>
     </row>
-    <row r="137" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="2:24" ht="30" customHeight="1">
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4259,7 +4290,7 @@
       <c r="W137" s="7"/>
       <c r="X137" s="3"/>
     </row>
-    <row r="138" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="2:24" ht="30" customHeight="1">
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -4284,7 +4315,7 @@
       <c r="W138" s="7"/>
       <c r="X138" s="3"/>
     </row>
-    <row r="139" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="139" spans="2:24" ht="30" customHeight="1">
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -4309,7 +4340,7 @@
       <c r="W139" s="7"/>
       <c r="X139" s="3"/>
     </row>
-    <row r="140" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="2:24" ht="30" customHeight="1">
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -4334,7 +4365,7 @@
       <c r="W140" s="7"/>
       <c r="X140" s="3"/>
     </row>
-    <row r="141" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="141" spans="2:24" ht="30" customHeight="1">
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -4359,7 +4390,7 @@
       <c r="W141" s="7"/>
       <c r="X141" s="3"/>
     </row>
-    <row r="142" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="142" spans="2:24" ht="30" customHeight="1">
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -4384,95 +4415,106 @@
       <c r="W142" s="7"/>
       <c r="X142" s="3"/>
     </row>
-    <row r="143" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="143" spans="2:24" ht="30" customHeight="1">
       <c r="B143" s="8"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="144" spans="2:24" ht="30" customHeight="1">
       <c r="B144" s="8"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="145" spans="2:24" ht="30" customHeight="1">
       <c r="B145" s="8"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="146" spans="2:24" ht="30" customHeight="1">
       <c r="B146" s="8"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="147" spans="2:24" ht="30" customHeight="1">
       <c r="B147" s="8"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="148" spans="2:24" ht="30" customHeight="1">
       <c r="B148" s="8"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="2:24" ht="30" customHeight="1">
       <c r="B149" s="8"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="150" spans="2:24" ht="30" customHeight="1">
       <c r="B150" s="8"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="2:24" ht="30" customHeight="1">
       <c r="B151" s="8"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="152" spans="2:24" ht="30" customHeight="1">
       <c r="B152" s="8"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="153" spans="2:24" ht="30" customHeight="1">
       <c r="B153" s="8"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="154" spans="2:24" ht="30" customHeight="1">
       <c r="B154" s="8"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="155" spans="2:24" ht="30" customHeight="1">
       <c r="B155" s="8"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="156" spans="2:24" ht="30" customHeight="1">
       <c r="B156" s="8"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="2:24" ht="30" customHeight="1">
       <c r="B157" s="8"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="158" spans="2:24" ht="30" customHeight="1">
       <c r="B158" s="8"/>
     </row>
-    <row r="159" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="159" spans="2:24" ht="30" customHeight="1">
       <c r="B159" s="8"/>
     </row>
-    <row r="160" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="160" spans="2:24" ht="30" customHeight="1">
       <c r="B160" s="8"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="161" spans="2:2" ht="30" customHeight="1">
       <c r="B161" s="8"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="2:2" ht="30" customHeight="1">
       <c r="B162" s="8"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="163" spans="2:2" ht="30" customHeight="1">
       <c r="B163" s="8"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="164" spans="2:2" ht="30" customHeight="1">
       <c r="B164" s="8"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="2:2" ht="30" customHeight="1">
       <c r="B165" s="8"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="166" spans="2:2" ht="30" customHeight="1">
       <c r="B166" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4485,17 +4527,6 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ตรวจงาน/รายการตรวจสอบรายงานการประชุม.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบรายงานการประชุม.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nice-\Desktop\Porn\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6326AB4D-075D-45ED-A06B-EA980D85D0DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA92D39-EEA1-4140-8AD9-81AE94DD3D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="3735" windowWidth="21600" windowHeight="11835" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,12 +321,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,9 +330,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -652,30 +652,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="26.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="26.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="50.45" customHeight="1">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:24" ht="50.5" customHeight="1">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="16" t="s">
@@ -708,10 +708,10 @@
       <c r="O2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="20" t="s">
         <v>25</v>
       </c>
       <c r="R2" s="16" t="s">
@@ -737,10 +737,10 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="51.75" customHeight="1">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="21"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -751,8 +751,8 @@
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
@@ -1288,7 +1288,10 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
+      <c r="X17" s="3">
+        <f>SUM(X4:X16)</f>
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="2:24" ht="30" customHeight="1">
       <c r="B18" s="6"/>
@@ -4504,17 +4507,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4527,6 +4519,17 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
